--- a/xlsx/就业_intext.xlsx
+++ b/xlsx/就业_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="340">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="335">
   <si>
     <t>就业</t>
   </si>
@@ -71,13 +71,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%B8%E7%95%B6</t>
   </si>
   <si>
-    <t>典當</t>
+    <t>典当</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%92%E5%8A%A9%E6%9C%83</t>
   </si>
   <si>
-    <t>互助會</t>
+    <t>互助会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A0%B4%E4%BA%A7</t>
@@ -107,7 +107,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%93%A1%E5%B7%A5%E7%A6%8F%E5%88%A9</t>
   </si>
   <si>
-    <t>員工福利</t>
+    <t>员工福利</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%80%80%E4%BC%91</t>
@@ -119,7 +119,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BC%B7%E5%88%B6%E6%80%A7%E5%85%AC%E7%A9%8D%E9%87%91</t>
   </si>
   <si>
-    <t>強制性公積金</t>
+    <t>强制性公积金</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%80%80%E4%BC%91%E9%87%91</t>
@@ -185,7 +185,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A0%B1%E9%85%AC</t>
   </si>
   <si>
-    <t>報酬</t>
+    <t>报酬</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B0%91%E6%B3%95</t>
@@ -203,7 +203,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%B7%E6%A5%AD</t>
   </si>
   <si>
-    <t>職業</t>
+    <t>职业</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD</t>
@@ -245,7 +245,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B3%87%E6%9C%AC%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>資本主義</t>
+    <t>资本主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A9%AC%E5%85%8B%E6%80%9D</t>
@@ -287,7 +287,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AF%A6%E9%AB%94</t>
   </si>
   <si>
-    <t>實體</t>
+    <t>实体</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%96%AA%E6%B0%B4</t>
@@ -407,7 +407,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8B%9E%E5%B7%A5</t>
   </si>
   <si>
-    <t>勞工</t>
+    <t>劳工</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%B6%E5%B1%82</t>
@@ -425,7 +425,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%99%BD%E9%A0%98</t>
   </si>
   <si>
-    <t>白領</t>
+    <t>白领</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AE%A1%E7%90%86</t>
@@ -473,7 +473,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9C%8D%E5%8B%99%E5%93%A1</t>
   </si>
   <si>
-    <t>服務員</t>
+    <t>服务员</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BF%97%E6%84%BF%E8%80%85</t>
@@ -491,7 +491,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%8F%90%E6%97%A9%E9%80%80%E4%BC%91%E8%A8%88%E5%8A%83</t>
   </si>
   <si>
-    <t>提早退休計劃</t>
+    <t>提早退休计划</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%B3%E5%8A%A8%E6%B3%95</t>
@@ -503,7 +503,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8B%9E%E5%8B%95%E5%90%88%E5%90%8C</t>
   </si>
   <si>
-    <t>勞動合同</t>
+    <t>劳动合同</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9B%87%E4%BD%A3%E5%85%B5</t>
@@ -515,7 +515,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8B%9E%E5%8B%95%E7%B6%93%E6%BF%9F%E5%AD%B8</t>
   </si>
   <si>
-    <t>勞動經濟學</t>
+    <t>劳动经济学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Wayback_Machine</t>
@@ -527,13 +527,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8B%9E%E5%8B%95%E5%A5%91%E7%B4%84</t>
   </si>
   <si>
-    <t>勞動契約</t>
+    <t>劳动契约</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9D%A2%E8%A9%A6</t>
   </si>
   <si>
-    <t>面試</t>
+    <t>面试</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8B%9B%E8%81%98</t>
@@ -545,25 +545,25 @@
     <t>https://zh.wikipedia.org/wiki/%E7%8D%B5%E9%A0%AD_(%E6%8B%9B%E8%81%98)</t>
   </si>
   <si>
-    <t>獵頭 (招聘)</t>
+    <t>猎头 (招聘)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A9%A6%E7%94%A8%E6%9C%9F</t>
   </si>
   <si>
-    <t>試用期</t>
+    <t>试用期</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9C%80%E4%BD%8E%E5%B7%A5%E8%B3%87</t>
   </si>
   <si>
-    <t>最低工資</t>
+    <t>最低工资</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%A8%E8%81%B7</t>
   </si>
   <si>
-    <t>全職</t>
+    <t>全职</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9C%9D%E4%B9%9D%E6%99%9A%E4%BA%94</t>
@@ -575,25 +575,25 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%BC%E8%81%B7</t>
   </si>
   <si>
-    <t>兼職</t>
+    <t>兼职</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B2%AC%E4%BB%BB%E5%88%B6</t>
   </si>
   <si>
-    <t>責任制</t>
+    <t>责任制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BC%AA%E7%8F%AD%E5%B7%A5%E4%BD%9C%E5%88%B6</t>
   </si>
   <si>
-    <t>輪班工作制</t>
+    <t>轮班工作制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BD%88%E6%80%A7%E5%B7%A5%E6%99%82</t>
   </si>
   <si>
-    <t>彈性工時</t>
+    <t>弹性工时</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E7%8F%AD</t>
@@ -605,7 +605,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B7%A5%E6%99%82%E8%A6%8F%E7%AE%A1</t>
   </si>
   <si>
-    <t>工時規管</t>
+    <t>工时规管</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%80%E4%BE%8B%E4%B8%80%E4%BC%91</t>
@@ -617,7 +617,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%84%A1%E8%96%AA%E5%81%87</t>
   </si>
   <si>
-    <t>無薪假</t>
+    <t>无薪假</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%94%E5%A4%A9%E5%B7%A5%E4%BD%9C%E5%88%B6</t>
@@ -641,13 +641,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A9%E7%84%B6%E7%81%BD%E5%AE%B3%E5%81%9C%E6%AD%A2%E4%B8%8A%E7%8F%AD%E5%8F%8A%E4%B8%8A%E8%AA%B2%E4%BD%9C%E6%A5%AD%E8%BE%A6%E6%B3%95</t>
   </si>
   <si>
-    <t>天然災害停止上班及上課作業辦法</t>
+    <t>天然灾害停止上班及上课作业办法</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%94%A2%E5%81%87%E8%88%87%E8%82%B2%E5%AC%B0%E5%81%87</t>
   </si>
   <si>
-    <t>產假與育嬰假</t>
+    <t>产假与育婴假</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%A5%E4%BC%A4</t>
@@ -659,7 +659,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%B7%E6%A5%AD%E5%AE%89%E5%85%A8</t>
   </si>
   <si>
-    <t>職業安全</t>
+    <t>职业安全</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%8C%E4%B8%9A%E7%97%85</t>
@@ -671,25 +671,25 @@
     <t>https://zh.wikipedia.org/wiki/%E9%81%8E%E5%8B%9E%E6%AD%BB</t>
   </si>
   <si>
-    <t>過勞死</t>
+    <t>过劳死</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A3%93%E5%8A%9B_(%E9%86%AB%E5%AD%B8)</t>
   </si>
   <si>
-    <t>壓力 (醫學)</t>
+    <t>压力 (医学)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%B7%E5%A0%B4%E9%9C%B8%E5%87%8C</t>
   </si>
   <si>
-    <t>職場霸凌</t>
+    <t>职场霸凌</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8B%9E%E5%B7%A5%E4%BF%9D%E9%9A%AA_(%E4%B8%AD%E8%8F%AF%E6%B0%91%E5%9C%8B)</t>
   </si>
   <si>
-    <t>勞工保險 (中華民國)</t>
+    <t>劳工保险 (中华民国)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%94%E9%99%A9%E4%B8%80%E9%87%91</t>
@@ -707,7 +707,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%89%E7%AF%80%E7%8D%8E%E9%87%91</t>
   </si>
   <si>
-    <t>三節獎金</t>
+    <t>三节奖金</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%81%9A%E7%89%99</t>
@@ -737,21 +737,18 @@
     <t>https://zh.wikipedia.org/wiki/%E5%93%A1%E5%B7%A5%E9%A4%90%E9%A3%B2</t>
   </si>
   <si>
-    <t>員工餐飲</t>
+    <t>员工餐饮</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%93%A1%E5%B7%A5%E5%83%B9</t>
   </si>
   <si>
-    <t>員工價</t>
+    <t>员工价</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%B1%E6%A5%AD</t>
   </si>
   <si>
-    <t>失業</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A7%A3%E5%83%B1</t>
   </si>
   <si>
@@ -761,7 +758,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A3%81%E5%93%A1</t>
   </si>
   <si>
-    <t>裁員</t>
+    <t>裁员</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%8B%E5%B2%97</t>
@@ -773,21 +770,18 @@
     <t>https://zh.wikipedia.org/wiki/%E8%BE%AD%E8%81%B7</t>
   </si>
   <si>
-    <t>辭職</t>
+    <t>辞职</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%B1%E6%A5%AD%E6%95%91%E5%8A%A9</t>
   </si>
   <si>
-    <t>失業救助</t>
+    <t>失业救助</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A0%B4%E7%94%A2</t>
   </si>
   <si>
-    <t>破產</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E9%80%80%E4%BC%8D</t>
   </si>
   <si>
@@ -803,13 +797,10 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%93%E7%90%86</t>
   </si>
   <si>
-    <t>經理</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%87%A8%E6%99%82%E5%B7%A5</t>
   </si>
   <si>
-    <t>臨時工</t>
+    <t>临时工</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%B3%E5%8A%A1%E6%B4%BE%E9%81%A3</t>
@@ -845,7 +836,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%94%A2%E5%AD%B8%E5%90%88%E4%BD%9C</t>
   </si>
   <si>
-    <t>產學合作</t>
+    <t>产学合作</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E5%83%B1%E4%BA%BA%E5%A3%AB</t>
@@ -857,55 +848,49 @@
     <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%94%B1%E8%81%B7%E6%A5%AD%E8%80%85</t>
   </si>
   <si>
-    <t>自由職業者</t>
+    <t>自由职业者</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B1%85%E5%AE%B6%E5%B0%B1%E6%A5%AD</t>
   </si>
   <si>
-    <t>居家就業</t>
+    <t>居家就业</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8D%A8%E7%AB%8B%E5%90%88%E5%90%8C%E4%BA%BA</t>
   </si>
   <si>
-    <t>獨立合同人</t>
+    <t>独立合同人</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BF%97%E9%A1%98%E8%80%85</t>
   </si>
   <si>
-    <t>志願者</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%A5%E6%9C%83</t>
   </si>
   <si>
-    <t>工會</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9B%86%E9%AB%94%E5%8D%94%E5%95%86</t>
   </si>
   <si>
-    <t>集體協商</t>
+    <t>集体协商</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BD%B7%E5%B7%A5</t>
   </si>
   <si>
-    <t>罷工</t>
+    <t>罢工</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%8D%E7%95%B6%E5%8B%9E%E5%8B%95%E8%A1%8C%E7%82%BA</t>
   </si>
   <si>
-    <t>不當勞動行為</t>
+    <t>不当劳动行为</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8B%9E%E5%B7%A5%E9%81%8B%E5%8B%95</t>
   </si>
   <si>
-    <t>勞工運動</t>
+    <t>劳工运动</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AB%A5%E5%B7%A5</t>
@@ -917,13 +902,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BB%89%E5%83%B9%E5%8B%9E%E5%B7%A5</t>
   </si>
   <si>
-    <t>廉價勞工</t>
+    <t>廉价劳工</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%BB%91%E5%B8%82%E5%8B%9E%E5%B7%A5</t>
   </si>
   <si>
-    <t>黑市勞工</t>
+    <t>黑市劳工</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E5%8F%A3%E8%B4%A9%E5%8D%96</t>
@@ -935,7 +920,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BC%B7%E8%BF%AB%E5%8B%9E%E5%8B%95</t>
   </si>
   <si>
-    <t>強迫勞動</t>
+    <t>强迫劳动</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%85%E8%BA%AB%E5%B7%A5</t>
@@ -953,13 +938,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%80%A7%E5%88%A5%E6%AD%A7%E8%A6%96%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>性別歧視主義</t>
+    <t>性别歧视主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B1%A4%E5%A3%93%E5%BC%8F%E6%8E%A8%E9%8A%B7</t>
   </si>
   <si>
-    <t>層壓式推銷</t>
+    <t>层压式推销</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%9E%E4%B9%A0</t>
@@ -971,37 +956,37 @@
     <t>https://zh.wikipedia.org/wiki/%E9%81%A3%E6%95%A3%E8%B2%BB</t>
   </si>
   <si>
-    <t>遣散費</t>
+    <t>遣散费</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8B%9E%E8%B3%87%E7%88%AD%E8%AD%B0</t>
   </si>
   <si>
-    <t>勞資爭議</t>
+    <t>劳资争议</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AB%B6%E6%A5%AD%E6%A2%9D%E6%AC%BE</t>
   </si>
   <si>
-    <t>競業條款</t>
+    <t>竞业条款</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%A5%E4%BD%9C%E8%B2%A7%E7%AA%AE</t>
   </si>
   <si>
-    <t>工作貧窮</t>
+    <t>工作贫穷</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AA%97%E9%82%8A%E6%97%8F</t>
   </si>
   <si>
-    <t>窗邊族</t>
+    <t>窗边族</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BE%A6%E5%85%AC%E5%AE%A4%E6%94%BF%E6%B2%BB</t>
   </si>
   <si>
-    <t>辦公室政治</t>
+    <t>办公室政治</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E4%BA%8B%E7%AE%A1%E7%90%86</t>
@@ -1013,7 +998,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%B4%E5%90%88%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -1025,7 +1010,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E7%AB%8B%E5%9C%8B%E6%9C%83%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
   </si>
   <si>
-    <t>國立國會圖書館</t>
+    <t>国立国会图书馆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%83%B1%E5%82%AD</t>
@@ -5117,7 +5102,7 @@
         <v>243</v>
       </c>
       <c r="F129" t="s">
-        <v>244</v>
+        <v>74</v>
       </c>
       <c r="G129" t="n">
         <v>2</v>
@@ -5143,10 +5128,10 @@
         <v>129</v>
       </c>
       <c r="E130" t="s">
+        <v>244</v>
+      </c>
+      <c r="F130" t="s">
         <v>245</v>
-      </c>
-      <c r="F130" t="s">
-        <v>246</v>
       </c>
       <c r="G130" t="n">
         <v>2</v>
@@ -5172,10 +5157,10 @@
         <v>130</v>
       </c>
       <c r="E131" t="s">
+        <v>246</v>
+      </c>
+      <c r="F131" t="s">
         <v>247</v>
-      </c>
-      <c r="F131" t="s">
-        <v>248</v>
       </c>
       <c r="G131" t="n">
         <v>1</v>
@@ -5201,10 +5186,10 @@
         <v>131</v>
       </c>
       <c r="E132" t="s">
+        <v>248</v>
+      </c>
+      <c r="F132" t="s">
         <v>249</v>
-      </c>
-      <c r="F132" t="s">
-        <v>250</v>
       </c>
       <c r="G132" t="n">
         <v>1</v>
@@ -5230,10 +5215,10 @@
         <v>132</v>
       </c>
       <c r="E133" t="s">
+        <v>250</v>
+      </c>
+      <c r="F133" t="s">
         <v>251</v>
-      </c>
-      <c r="F133" t="s">
-        <v>252</v>
       </c>
       <c r="G133" t="n">
         <v>1</v>
@@ -5259,10 +5244,10 @@
         <v>133</v>
       </c>
       <c r="E134" t="s">
+        <v>252</v>
+      </c>
+      <c r="F134" t="s">
         <v>253</v>
-      </c>
-      <c r="F134" t="s">
-        <v>254</v>
       </c>
       <c r="G134" t="n">
         <v>1</v>
@@ -5288,10 +5273,10 @@
         <v>134</v>
       </c>
       <c r="E135" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F135" t="s">
-        <v>256</v>
+        <v>22</v>
       </c>
       <c r="G135" t="n">
         <v>1</v>
@@ -5317,10 +5302,10 @@
         <v>135</v>
       </c>
       <c r="E136" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="F136" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="G136" t="n">
         <v>1</v>
@@ -5346,10 +5331,10 @@
         <v>136</v>
       </c>
       <c r="E137" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="F137" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="G137" t="n">
         <v>1</v>
@@ -5375,10 +5360,10 @@
         <v>137</v>
       </c>
       <c r="E138" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="F138" t="s">
-        <v>262</v>
+        <v>150</v>
       </c>
       <c r="G138" t="n">
         <v>1</v>
@@ -5404,10 +5389,10 @@
         <v>138</v>
       </c>
       <c r="E139" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="F139" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="G139" t="n">
         <v>1</v>
@@ -5462,10 +5447,10 @@
         <v>140</v>
       </c>
       <c r="E141" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="F141" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="G141" t="n">
         <v>1</v>
@@ -5491,10 +5476,10 @@
         <v>141</v>
       </c>
       <c r="E142" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="F142" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="G142" t="n">
         <v>1</v>
@@ -5520,10 +5505,10 @@
         <v>142</v>
       </c>
       <c r="E143" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="F143" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="G143" t="n">
         <v>1</v>
@@ -5549,10 +5534,10 @@
         <v>143</v>
       </c>
       <c r="E144" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="F144" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="G144" t="n">
         <v>2</v>
@@ -5578,10 +5563,10 @@
         <v>144</v>
       </c>
       <c r="E145" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="F145" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="G145" t="n">
         <v>1</v>
@@ -5607,10 +5592,10 @@
         <v>145</v>
       </c>
       <c r="E146" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="F146" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="G146" t="n">
         <v>1</v>
@@ -5636,10 +5621,10 @@
         <v>146</v>
       </c>
       <c r="E147" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="F147" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="G147" t="n">
         <v>1</v>
@@ -5665,10 +5650,10 @@
         <v>147</v>
       </c>
       <c r="E148" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="F148" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="G148" t="n">
         <v>1</v>
@@ -5694,10 +5679,10 @@
         <v>148</v>
       </c>
       <c r="E149" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="F149" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="G149" t="n">
         <v>1</v>
@@ -5723,10 +5708,10 @@
         <v>149</v>
       </c>
       <c r="E150" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="F150" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="G150" t="n">
         <v>1</v>
@@ -5752,10 +5737,10 @@
         <v>150</v>
       </c>
       <c r="E151" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="F151" t="s">
-        <v>286</v>
+        <v>154</v>
       </c>
       <c r="G151" t="n">
         <v>1</v>
@@ -5781,10 +5766,10 @@
         <v>151</v>
       </c>
       <c r="E152" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="F152" t="s">
-        <v>288</v>
+        <v>66</v>
       </c>
       <c r="G152" t="n">
         <v>2</v>
@@ -5810,10 +5795,10 @@
         <v>152</v>
       </c>
       <c r="E153" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="F153" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="G153" t="n">
         <v>1</v>
@@ -5839,10 +5824,10 @@
         <v>153</v>
       </c>
       <c r="E154" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="F154" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="G154" t="n">
         <v>1</v>
@@ -5868,10 +5853,10 @@
         <v>154</v>
       </c>
       <c r="E155" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="F155" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="G155" t="n">
         <v>2</v>
@@ -5897,10 +5882,10 @@
         <v>155</v>
       </c>
       <c r="E156" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="F156" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="G156" t="n">
         <v>1</v>
@@ -5926,10 +5911,10 @@
         <v>156</v>
       </c>
       <c r="E157" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="F157" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="G157" t="n">
         <v>1</v>
@@ -5955,10 +5940,10 @@
         <v>157</v>
       </c>
       <c r="E158" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="F158" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="G158" t="n">
         <v>1</v>
@@ -5984,10 +5969,10 @@
         <v>158</v>
       </c>
       <c r="E159" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="F159" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="G159" t="n">
         <v>1</v>
@@ -6013,10 +5998,10 @@
         <v>159</v>
       </c>
       <c r="E160" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="F160" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="G160" t="n">
         <v>1</v>
@@ -6042,10 +6027,10 @@
         <v>160</v>
       </c>
       <c r="E161" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="F161" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="G161" t="n">
         <v>1</v>
@@ -6071,10 +6056,10 @@
         <v>161</v>
       </c>
       <c r="E162" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="F162" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="G162" t="n">
         <v>1</v>
@@ -6100,10 +6085,10 @@
         <v>162</v>
       </c>
       <c r="E163" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="F163" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="G163" t="n">
         <v>1</v>
@@ -6129,10 +6114,10 @@
         <v>163</v>
       </c>
       <c r="E164" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="F164" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="G164" t="n">
         <v>1</v>
@@ -6158,10 +6143,10 @@
         <v>164</v>
       </c>
       <c r="E165" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="F165" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="G165" t="n">
         <v>1</v>
@@ -6187,10 +6172,10 @@
         <v>165</v>
       </c>
       <c r="E166" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="F166" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="G166" t="n">
         <v>3</v>
@@ -6216,10 +6201,10 @@
         <v>166</v>
       </c>
       <c r="E167" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="F167" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="G167" t="n">
         <v>1</v>
@@ -6245,10 +6230,10 @@
         <v>167</v>
       </c>
       <c r="E168" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="F168" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="G168" t="n">
         <v>1</v>
@@ -6274,10 +6259,10 @@
         <v>168</v>
       </c>
       <c r="E169" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="F169" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="G169" t="n">
         <v>1</v>
@@ -6303,10 +6288,10 @@
         <v>169</v>
       </c>
       <c r="E170" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="F170" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="G170" t="n">
         <v>1</v>
@@ -6332,10 +6317,10 @@
         <v>170</v>
       </c>
       <c r="E171" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="F171" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="G171" t="n">
         <v>1</v>
@@ -6361,10 +6346,10 @@
         <v>171</v>
       </c>
       <c r="E172" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="F172" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="G172" t="n">
         <v>1</v>
@@ -6390,10 +6375,10 @@
         <v>172</v>
       </c>
       <c r="E173" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="F173" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="G173" t="n">
         <v>1</v>
@@ -6419,10 +6404,10 @@
         <v>173</v>
       </c>
       <c r="E174" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="F174" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="G174" t="n">
         <v>3</v>
@@ -6448,10 +6433,10 @@
         <v>174</v>
       </c>
       <c r="E175" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="F175" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="G175" t="n">
         <v>1</v>
@@ -6477,10 +6462,10 @@
         <v>175</v>
       </c>
       <c r="E176" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="F176" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="G176" t="n">
         <v>1</v>
@@ -6506,10 +6491,10 @@
         <v>176</v>
       </c>
       <c r="E177" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="F177" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="G177" t="n">
         <v>4</v>
@@ -6535,10 +6520,10 @@
         <v>177</v>
       </c>
       <c r="E178" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="F178" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="G178" t="n">
         <v>1</v>
